--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H2">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.590723693016302</v>
+        <v>0.6763496666666667</v>
       </c>
       <c r="N2">
-        <v>0.590723693016302</v>
+        <v>2.029049</v>
       </c>
       <c r="O2">
-        <v>0.1269716826572026</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="P2">
-        <v>0.1269716826572026</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="Q2">
-        <v>9.695143060089354</v>
+        <v>13.49708695467245</v>
       </c>
       <c r="R2">
-        <v>9.695143060089354</v>
+        <v>121.473782592052</v>
       </c>
       <c r="S2">
-        <v>0.001238200524414675</v>
+        <v>0.001433837655189034</v>
       </c>
       <c r="T2">
-        <v>0.001238200524414675</v>
+        <v>0.001433837655189034</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H3">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.40237919234935</v>
+        <v>3.724503</v>
       </c>
       <c r="N3">
-        <v>3.40237919234935</v>
+        <v>11.173509</v>
       </c>
       <c r="O3">
-        <v>0.7313162078950657</v>
+        <v>0.672709052289864</v>
       </c>
       <c r="P3">
-        <v>0.7313162078950657</v>
+        <v>0.6727090522898641</v>
       </c>
       <c r="Q3">
-        <v>55.84091751266171</v>
+        <v>74.32537240934801</v>
       </c>
       <c r="R3">
-        <v>55.84091751266171</v>
+        <v>668.9283516841321</v>
       </c>
       <c r="S3">
-        <v>0.007131638276963921</v>
+        <v>0.007895816190143049</v>
       </c>
       <c r="T3">
-        <v>0.007131638276963921</v>
+        <v>0.007895816190143051</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H4">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.659302128523424</v>
+        <v>0.31493</v>
       </c>
       <c r="N4">
-        <v>0.659302128523424</v>
+        <v>0.94479</v>
       </c>
       <c r="O4">
-        <v>0.1417121094477316</v>
+        <v>0.05688175357561716</v>
       </c>
       <c r="P4">
-        <v>0.1417121094477316</v>
+        <v>0.05688175357561717</v>
       </c>
       <c r="Q4">
-        <v>10.82067391476647</v>
+        <v>6.284674635213333</v>
       </c>
       <c r="R4">
-        <v>10.82067391476647</v>
+        <v>56.56207171692</v>
       </c>
       <c r="S4">
-        <v>0.001381945994271956</v>
+        <v>0.0006676405933252705</v>
       </c>
       <c r="T4">
-        <v>0.001381945994271956</v>
+        <v>0.0006676405933252707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1628.01314247892</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H5">
-        <v>1628.01314247892</v>
+        <v>59.867348</v>
       </c>
       <c r="I5">
-        <v>0.9673244906791579</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J5">
-        <v>0.9673244906791579</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.590723693016302</v>
+        <v>0.8207906666666666</v>
       </c>
       <c r="N5">
-        <v>0.590723693016302</v>
+        <v>2.462372</v>
       </c>
       <c r="O5">
-        <v>0.1269716826572026</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="P5">
-        <v>0.1269716826572026</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="Q5">
-        <v>961.7059358042227</v>
+        <v>16.37952015882844</v>
       </c>
       <c r="R5">
-        <v>961.7059358042227</v>
+        <v>147.415681429456</v>
       </c>
       <c r="S5">
-        <v>0.1228228182570542</v>
+        <v>0.001740047527035143</v>
       </c>
       <c r="T5">
-        <v>0.1228228182570542</v>
+        <v>0.001740047527035143</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H6">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.40237919234935</v>
+        <v>0.6763496666666667</v>
       </c>
       <c r="N6">
-        <v>3.40237919234935</v>
+        <v>2.029049</v>
       </c>
       <c r="O6">
-        <v>0.7313162078950657</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="P6">
-        <v>0.7313162078950657</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="Q6">
-        <v>5539.118040841555</v>
+        <v>1107.416624482385</v>
       </c>
       <c r="R6">
-        <v>5539.118040841555</v>
+        <v>9966.74962034147</v>
       </c>
       <c r="S6">
-        <v>0.7074200783275076</v>
+        <v>0.1176443229192868</v>
       </c>
       <c r="T6">
-        <v>0.7074200783275076</v>
+        <v>0.1176443229192868</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H7">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.659302128523424</v>
+        <v>3.724503</v>
       </c>
       <c r="N7">
-        <v>0.659302128523424</v>
+        <v>11.173509</v>
       </c>
       <c r="O7">
-        <v>0.1417121094477316</v>
+        <v>0.672709052289864</v>
       </c>
       <c r="P7">
-        <v>0.1417121094477316</v>
+        <v>0.6727090522898641</v>
       </c>
       <c r="Q7">
-        <v>1073.35253010046</v>
+        <v>6098.29019427503</v>
       </c>
       <c r="R7">
-        <v>1073.35253010046</v>
+        <v>54884.61174847528</v>
       </c>
       <c r="S7">
-        <v>0.137081594094596</v>
+        <v>0.647840392685222</v>
       </c>
       <c r="T7">
-        <v>0.137081594094596</v>
+        <v>0.6478403926852222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.2701060874532</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H8">
-        <v>13.2701060874532</v>
+        <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.007884763505507309</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J8">
-        <v>0.007884763505507309</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.590723693016302</v>
+        <v>0.31493</v>
       </c>
       <c r="N8">
-        <v>0.590723693016302</v>
+        <v>0.94479</v>
       </c>
       <c r="O8">
-        <v>0.1269716826572026</v>
+        <v>0.05688175357561716</v>
       </c>
       <c r="P8">
-        <v>0.1269716826572026</v>
+        <v>0.05688175357561717</v>
       </c>
       <c r="Q8">
-        <v>7.838966074698465</v>
+        <v>515.6485391159666</v>
       </c>
       <c r="R8">
-        <v>7.838966074698465</v>
+        <v>4640.8368520437</v>
       </c>
       <c r="S8">
-        <v>0.001001141689648366</v>
+        <v>0.0547789530222843</v>
       </c>
       <c r="T8">
-        <v>0.001001141689648366</v>
+        <v>0.05477895302228432</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.2701060874532</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H9">
-        <v>13.2701060874532</v>
+        <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.007884763505507309</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J9">
-        <v>0.007884763505507309</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.40237919234935</v>
+        <v>0.8207906666666666</v>
       </c>
       <c r="N9">
-        <v>3.40237919234935</v>
+        <v>2.462372</v>
       </c>
       <c r="O9">
-        <v>0.7313162078950657</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="P9">
-        <v>0.7313162078950657</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="Q9">
-        <v>45.14993283221921</v>
+        <v>1343.916134336795</v>
       </c>
       <c r="R9">
-        <v>45.14993283221921</v>
+        <v>12095.24520903116</v>
       </c>
       <c r="S9">
-        <v>0.00576625534699701</v>
+        <v>0.1427684036784769</v>
       </c>
       <c r="T9">
-        <v>0.00576625534699701</v>
+        <v>0.142768403678477</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H10">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.659302128523424</v>
+        <v>0.6763496666666667</v>
       </c>
       <c r="N10">
-        <v>0.659302128523424</v>
+        <v>2.029049</v>
       </c>
       <c r="O10">
-        <v>0.1417121094477316</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="P10">
-        <v>0.1417121094477316</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="Q10">
-        <v>8.749009189189541</v>
+        <v>11.83667332249356</v>
       </c>
       <c r="R10">
-        <v>8.749009189189541</v>
+        <v>106.530059902442</v>
       </c>
       <c r="S10">
-        <v>0.001117366468861932</v>
+        <v>0.001257446734911002</v>
       </c>
       <c r="T10">
-        <v>0.001117366468861932</v>
+        <v>0.001257446734911002</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.3106650614045</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H11">
-        <v>25.3106650614045</v>
+        <v>52.502458</v>
       </c>
       <c r="I11">
-        <v>0.01503896101968408</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J11">
-        <v>0.01503896101968408</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.590723693016302</v>
+        <v>3.724503</v>
       </c>
       <c r="N11">
-        <v>0.590723693016302</v>
+        <v>11.173509</v>
       </c>
       <c r="O11">
-        <v>0.1269716826572026</v>
+        <v>0.672709052289864</v>
       </c>
       <c r="P11">
-        <v>0.1269716826572026</v>
+        <v>0.6727090522898641</v>
       </c>
       <c r="Q11">
-        <v>14.95160953777155</v>
+        <v>65.18185410945802</v>
       </c>
       <c r="R11">
-        <v>14.95160953777155</v>
+        <v>586.6366869851221</v>
       </c>
       <c r="S11">
-        <v>0.001909522186085367</v>
+        <v>0.006924471715344822</v>
       </c>
       <c r="T11">
-        <v>0.001909522186085367</v>
+        <v>0.006924471715344825</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.3106650614045</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H12">
-        <v>25.3106650614045</v>
+        <v>52.502458</v>
       </c>
       <c r="I12">
-        <v>0.01503896101968408</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J12">
-        <v>0.01503896101968408</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>3.40237919234935</v>
+        <v>0.31493</v>
       </c>
       <c r="N12">
-        <v>3.40237919234935</v>
+        <v>0.94479</v>
       </c>
       <c r="O12">
-        <v>0.7313162078950657</v>
+        <v>0.05688175357561716</v>
       </c>
       <c r="P12">
-        <v>0.7313162078950657</v>
+        <v>0.05688175357561717</v>
       </c>
       <c r="Q12">
-        <v>86.11648014944636</v>
+        <v>5.511533032646668</v>
       </c>
       <c r="R12">
-        <v>86.11648014944636</v>
+        <v>49.60379729382001</v>
       </c>
       <c r="S12">
-        <v>0.01099823594359707</v>
+        <v>0.0005855073488499123</v>
       </c>
       <c r="T12">
-        <v>0.01099823594359707</v>
+        <v>0.0005855073488499125</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.3106650614045</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H13">
-        <v>25.3106650614045</v>
+        <v>52.502458</v>
       </c>
       <c r="I13">
-        <v>0.01503896101968408</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J13">
-        <v>0.01503896101968408</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.659302128523424</v>
+        <v>0.8207906666666666</v>
       </c>
       <c r="N13">
-        <v>0.659302128523424</v>
+        <v>2.462372</v>
       </c>
       <c r="O13">
-        <v>0.1417121094477316</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="P13">
-        <v>0.1417121094477316</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="Q13">
-        <v>16.68737534932745</v>
+        <v>14.36450916781956</v>
       </c>
       <c r="R13">
-        <v>16.68737534932745</v>
+        <v>129.280582510376</v>
       </c>
       <c r="S13">
-        <v>0.00213120289000164</v>
+        <v>0.00152598662306148</v>
       </c>
       <c r="T13">
-        <v>0.00213120289000164</v>
+        <v>0.001525986623061481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>25.39612333333333</v>
+      </c>
+      <c r="H14">
+        <v>76.18836999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="J14">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6763496666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.029049</v>
+      </c>
+      <c r="O14">
+        <v>0.1221603374409683</v>
+      </c>
+      <c r="P14">
+        <v>0.1221603374409683</v>
+      </c>
+      <c r="Q14">
+        <v>17.17665955112556</v>
+      </c>
+      <c r="R14">
+        <v>154.58993596013</v>
+      </c>
+      <c r="S14">
+        <v>0.001824730131581484</v>
+      </c>
+      <c r="T14">
+        <v>0.001824730131581484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>25.39612333333333</v>
+      </c>
+      <c r="H15">
+        <v>76.18836999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="J15">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.724503</v>
+      </c>
+      <c r="N15">
+        <v>11.173509</v>
+      </c>
+      <c r="O15">
+        <v>0.672709052289864</v>
+      </c>
+      <c r="P15">
+        <v>0.6727090522898641</v>
+      </c>
+      <c r="Q15">
+        <v>94.58793754337</v>
+      </c>
+      <c r="R15">
+        <v>851.29143789033</v>
+      </c>
+      <c r="S15">
+        <v>0.01004837169915408</v>
+      </c>
+      <c r="T15">
+        <v>0.01004837169915409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>25.39612333333333</v>
+      </c>
+      <c r="H16">
+        <v>76.18836999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="J16">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.31493</v>
+      </c>
+      <c r="N16">
+        <v>0.94479</v>
+      </c>
+      <c r="O16">
+        <v>0.05688175357561716</v>
+      </c>
+      <c r="P16">
+        <v>0.05688175357561717</v>
+      </c>
+      <c r="Q16">
+        <v>7.998001121366666</v>
+      </c>
+      <c r="R16">
+        <v>71.98201009229999</v>
+      </c>
+      <c r="S16">
+        <v>0.0008496526111576754</v>
+      </c>
+      <c r="T16">
+        <v>0.0008496526111576756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>25.39612333333333</v>
+      </c>
+      <c r="H17">
+        <v>76.18836999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="J17">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8207906666666666</v>
+      </c>
+      <c r="N17">
+        <v>2.462372</v>
+      </c>
+      <c r="O17">
+        <v>0.1482488566935505</v>
+      </c>
+      <c r="P17">
+        <v>0.1482488566935505</v>
+      </c>
+      <c r="Q17">
+        <v>20.84490100151555</v>
+      </c>
+      <c r="R17">
+        <v>187.60410901364</v>
+      </c>
+      <c r="S17">
+        <v>0.002214418864976923</v>
+      </c>
+      <c r="T17">
+        <v>0.002214418864976924</v>
       </c>
     </row>
   </sheetData>
